--- a/EM Analyzer/bin/Debug/Hanaka_reduced - First.xlsx
+++ b/EM Analyzer/bin/Debug/Hanaka_reduced - First.xlsx
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>1.6</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0.6</v>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>2.9</v>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>1.6</v>
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="G63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0.6</v>
@@ -4755,7 +4755,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1">
         <v>0.8</v>
@@ -5632,10 +5632,10 @@
         <v>12</v>
       </c>
       <c r="F125" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1">
         <v>2.6</v>
@@ -5656,7 +5656,7 @@
         <v>3.1</v>
       </c>
       <c r="N125" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -6031,7 +6031,7 @@
         <v>15</v>
       </c>
       <c r="G134" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1">
         <v>1.3</v>
@@ -6075,7 +6075,7 @@
         <v>15</v>
       </c>
       <c r="G135" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="1">
         <v>1.3</v>
@@ -7087,7 +7087,7 @@
         <v>18</v>
       </c>
       <c r="G158" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1">
         <v>1.9</v>
@@ -7351,7 +7351,7 @@
         <v>19</v>
       </c>
       <c r="G164" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" s="1">
         <v>1.6</v>
@@ -11091,7 +11091,7 @@
         <v>29</v>
       </c>
       <c r="G249" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249" s="1">
         <v>2.5</v>
@@ -11443,7 +11443,7 @@
         <v>30</v>
       </c>
       <c r="G257" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" s="1">
         <v>2</v>
@@ -11487,7 +11487,7 @@
         <v>30</v>
       </c>
       <c r="G258" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258" s="1">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>30</v>
       </c>
       <c r="G260" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" s="1">
         <v>2</v>
@@ -13772,7 +13772,7 @@
         <v>5</v>
       </c>
       <c r="F310" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G310" s="1" t="b">
         <v>1</v>
@@ -13796,7 +13796,7 @@
         <v>4.1</v>
       </c>
       <c r="N310" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -13819,7 +13819,7 @@
         <v>2</v>
       </c>
       <c r="G311" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H311" s="1">
         <v>2.8</v>
@@ -13860,7 +13860,7 @@
         <v>-1</v>
       </c>
       <c r="F312" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G312" s="1" t="b">
         <v>1</v>
@@ -13884,7 +13884,7 @@
         <v>3.9</v>
       </c>
       <c r="N312" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -15271,7 +15271,7 @@
         <v>8</v>
       </c>
       <c r="G344" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H344" s="1">
         <v>2.5</v>
@@ -15312,7 +15312,7 @@
         <v>11</v>
       </c>
       <c r="F345" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G345" s="1" t="b">
         <v>1</v>
@@ -15336,7 +15336,7 @@
         <v>3.4</v>
       </c>
       <c r="N345" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -15359,7 +15359,7 @@
         <v>8</v>
       </c>
       <c r="G346" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H346" s="1">
         <v>2.5</v>
@@ -15403,7 +15403,7 @@
         <v>8</v>
       </c>
       <c r="G347" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H347" s="1">
         <v>2.5</v>
@@ -16016,10 +16016,10 @@
         <v>12</v>
       </c>
       <c r="F361" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G361" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H361" s="1">
         <v>2.6</v>
@@ -16040,7 +16040,7 @@
         <v>3.7</v>
       </c>
       <c r="N361" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -16060,10 +16060,10 @@
         <v>12</v>
       </c>
       <c r="F362" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G362" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362" s="1">
         <v>2.6</v>
@@ -16084,7 +16084,7 @@
         <v>3.6</v>
       </c>
       <c r="N362" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -16148,10 +16148,10 @@
         <v>12</v>
       </c>
       <c r="F364" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G364" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" s="1">
         <v>2.6</v>
@@ -16172,7 +16172,7 @@
         <v>3.5</v>
       </c>
       <c r="N364" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -16192,10 +16192,10 @@
         <v>12</v>
       </c>
       <c r="F365" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G365" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H365" s="1">
         <v>2.6</v>
@@ -16216,7 +16216,7 @@
         <v>3.6</v>
       </c>
       <c r="N365" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -17691,7 +17691,7 @@
         <v>11</v>
       </c>
       <c r="G399" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H399" s="1">
         <v>0.8</v>
@@ -17735,7 +17735,7 @@
         <v>11</v>
       </c>
       <c r="G400" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H400" s="1">
         <v>0.8</v>
@@ -19184,7 +19184,7 @@
         <v>15</v>
       </c>
       <c r="F433" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G433" s="1" t="b">
         <v>1</v>
@@ -19208,7 +19208,7 @@
         <v>3.3</v>
       </c>
       <c r="N433" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -27063,7 +27063,7 @@
         <v>6</v>
       </c>
       <c r="G612" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H612" s="1">
         <v>1.4</v>
@@ -27107,7 +27107,7 @@
         <v>6</v>
       </c>
       <c r="G613" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H613" s="1">
         <v>1.4</v>
@@ -28251,7 +28251,7 @@
         <v>8</v>
       </c>
       <c r="G639" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H639" s="1">
         <v>2.5</v>
@@ -28295,7 +28295,7 @@
         <v>8</v>
       </c>
       <c r="G640" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H640" s="1">
         <v>2.5</v>
@@ -29527,7 +29527,7 @@
         <v>33</v>
       </c>
       <c r="G668" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H668" s="1">
         <v>0.9</v>
@@ -29571,7 +29571,7 @@
         <v>33</v>
       </c>
       <c r="G669" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H669" s="1">
         <v>0.9</v>
